--- a/Documentation/Test Documentation.xlsx
+++ b/Documentation/Test Documentation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\woody\Official\COMP3000\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{886F2017-5304-4F1B-8E2C-391EAAA3947B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EC69C96-37D7-4DB0-8405-5A40D996C4FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-90" windowWidth="29040" windowHeight="15990" xr2:uid="{93F87C06-B835-4961-807D-CCCD559568F8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{93F87C06-B835-4961-807D-CCCD559568F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="96">
   <si>
     <t>Test:</t>
   </si>
@@ -315,6 +315,15 @@
   </si>
   <si>
     <t>Main Div</t>
+  </si>
+  <si>
+    <t>Progress Tracker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Icons navigate to task </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Icons change to tick when completed </t>
   </si>
 </sst>
 </file>
@@ -732,10 +741,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1402B43F-7536-4C91-A778-BED54A7D6923}">
-  <dimension ref="A1:D75"/>
+  <dimension ref="A1:D77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1081,7 +1090,9 @@
       <c r="C31" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D31" s="2"/>
+      <c r="D31" s="2">
+        <v>45639</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
@@ -1160,34 +1171,34 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>52</v>
-      </c>
+      <c r="A39" s="1"/>
       <c r="B39" s="1" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="D39" s="2">
-        <v>45639</v>
+        <v>45670</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D40" s="2">
-        <v>45639</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="D40" s="2"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
+      <c r="A41" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="C41" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D41" s="2">
         <v>45639</v>
@@ -1197,7 +1208,7 @@
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D42" s="2">
         <v>45639</v>
@@ -1207,9 +1218,9 @@
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D43" s="3">
+        <v>53</v>
+      </c>
+      <c r="D43" s="2">
         <v>45639</v>
       </c>
     </row>
@@ -1217,7 +1228,7 @@
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D44" s="2">
         <v>45639</v>
@@ -1225,13 +1236,11 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
-      <c r="B45" s="1" t="s">
-        <v>60</v>
-      </c>
+      <c r="B45" s="1"/>
       <c r="C45" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D45" s="2">
+        <v>55</v>
+      </c>
+      <c r="D45" s="3">
         <v>45639</v>
       </c>
     </row>
@@ -1239,7 +1248,7 @@
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D46" s="2">
         <v>45639</v>
@@ -1247,11 +1256,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
+      <c r="B47" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="C47" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D47" s="3">
+        <v>53</v>
+      </c>
+      <c r="D47" s="2">
         <v>45639</v>
       </c>
     </row>
@@ -1259,7 +1270,7 @@
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D48" s="2">
         <v>45639</v>
@@ -1267,13 +1278,11 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
-      <c r="B49" s="1" t="s">
-        <v>64</v>
-      </c>
+      <c r="B49" s="1"/>
       <c r="C49" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D49" s="2">
+      <c r="D49" s="3">
         <v>45639</v>
       </c>
     </row>
@@ -1281,7 +1290,7 @@
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D50" s="2">
         <v>45639</v>
@@ -1289,9 +1298,11 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
+      <c r="B51" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="C51" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D51" s="2">
         <v>45639</v>
@@ -1301,7 +1312,7 @@
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D52" s="2">
         <v>45639</v>
@@ -1311,7 +1322,7 @@
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D53" s="2">
         <v>45639</v>
@@ -1321,7 +1332,7 @@
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D54" s="2">
         <v>45639</v>
@@ -1331,7 +1342,7 @@
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D55" s="2">
         <v>45639</v>
@@ -1341,7 +1352,7 @@
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D56" s="2">
         <v>45639</v>
@@ -1351,7 +1362,7 @@
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D57" s="2">
         <v>45639</v>
@@ -1361,7 +1372,7 @@
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D58" s="2">
         <v>45639</v>
@@ -1369,13 +1380,11 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
-      <c r="B59" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="B59" s="1"/>
       <c r="C59" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D59" s="3">
+        <v>78</v>
+      </c>
+      <c r="D59" s="2">
         <v>45639</v>
       </c>
     </row>
@@ -1383,7 +1392,7 @@
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D60" s="2">
         <v>45639</v>
@@ -1391,11 +1400,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
+      <c r="B61" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="C61" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D61" s="2">
+        <v>62</v>
+      </c>
+      <c r="D61" s="3">
         <v>45639</v>
       </c>
     </row>
@@ -1403,19 +1414,17 @@
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D62" s="3">
+        <v>72</v>
+      </c>
+      <c r="D62" s="2">
         <v>45639</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
-      <c r="B63" s="1" t="s">
-        <v>71</v>
-      </c>
+      <c r="B63" s="1"/>
       <c r="C63" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D63" s="2">
         <v>45639</v>
@@ -1425,17 +1434,19 @@
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D64" s="2">
+        <v>80</v>
+      </c>
+      <c r="D64" s="3">
         <v>45639</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
+      <c r="B65" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="C65" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D65" s="2">
         <v>45639</v>
@@ -1445,21 +1456,17 @@
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D66" s="2">
         <v>45639</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>82</v>
-      </c>
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
       <c r="C67" s="1" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="D67" s="2">
         <v>45639</v>
@@ -1469,17 +1476,21 @@
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="D68" s="2">
         <v>45639</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
+      <c r="A69" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="C69" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D69" s="2">
         <v>45639</v>
@@ -1489,7 +1500,7 @@
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D70" s="2">
         <v>45639</v>
@@ -1499,7 +1510,7 @@
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D71" s="2">
         <v>45639</v>
@@ -1509,7 +1520,7 @@
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D72" s="2">
         <v>45639</v>
@@ -1519,7 +1530,7 @@
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D73" s="2">
         <v>45639</v>
@@ -1527,11 +1538,9 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
-      <c r="B74" s="1" t="s">
-        <v>92</v>
-      </c>
+      <c r="B74" s="1"/>
       <c r="C74" s="1" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="D74" s="2">
         <v>45639</v>
@@ -1541,9 +1550,31 @@
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D75" s="2">
+        <v>45639</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D76" s="2">
+        <v>45639</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D75" s="2">
+      <c r="D77" s="2">
         <v>45639</v>
       </c>
     </row>
